--- a/OTHERS/New Microsoft Excel Worksheet.xlsx
+++ b/OTHERS/New Microsoft Excel Worksheet.xlsx
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,6 +409,55 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OTHERS/New Microsoft Excel Worksheet.xlsx
+++ b/OTHERS/New Microsoft Excel Worksheet.xlsx
@@ -364,7 +364,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,6 +426,9 @@
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -438,6 +441,9 @@
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
+      </c>
+      <c r="B10">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">

--- a/OTHERS/New Microsoft Excel Worksheet.xlsx
+++ b/OTHERS/New Microsoft Excel Worksheet.xlsx
@@ -364,7 +364,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,6 +421,9 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -449,6 +452,9 @@
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
+      </c>
+      <c r="B11">
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">

--- a/OTHERS/New Microsoft Excel Worksheet.xlsx
+++ b/OTHERS/New Microsoft Excel Worksheet.xlsx
@@ -364,7 +364,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +462,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>25</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
